--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value610.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value610.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.466406265514366</v>
+        <v>1.069889068603516</v>
       </c>
       <c r="B1">
-        <v>3.617613960219562</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.208379969989619</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.514924733831631</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.9216878784875833</v>
+        <v>1.16062593460083</v>
       </c>
     </row>
   </sheetData>
